--- a/Example.xlsx
+++ b/Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25460" yWindow="-5600" windowWidth="36400" windowHeight="20880" tabRatio="685"/>
+    <workbookView xWindow="25480" yWindow="-5600" windowWidth="36400" windowHeight="20880" tabRatio="685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Chrono_Iso1" sheetId="4" r:id="rId4"/>
     <sheet name="Chrono_Iso2" sheetId="10" r:id="rId5"/>
     <sheet name="Data_Pollen" sheetId="7" r:id="rId6"/>
-    <sheet name="Data_Recons" sheetId="11" r:id="rId7"/>
+    <sheet name="Data_TmeanAnn" sheetId="11" r:id="rId7"/>
     <sheet name="Chrono_Pol1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -1858,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -2102,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11062,7 +11062,7 @@
   <dimension ref="A1:AD58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
